--- a/medicine/Enfance/Carmen_Martín_Gaite/Carmen_Martín_Gaite.xlsx
+++ b/medicine/Enfance/Carmen_Martín_Gaite/Carmen_Martín_Gaite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carmen_Mart%C3%ADn_Gaite</t>
+          <t>Carmen_Martín_Gaite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carmen Martín Gaite, née à Salamanque le 8 décembre 1925 et décédée à Madrid le 23 juillet 2000 (à 74 ans), est une écrivaine espagnole appartenant à la Génération de 50.
 Elle est lauréate du Prix Nadal en 1957, du Prix national de Narration en 1978 pour La Chambre du fond (El cuarto de atrás (es)), du Prix Princesse des Asturies de littérature en 1988 et du Prix national des Lettres espagnoles en 1994.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carmen_Mart%C3%ADn_Gaite</t>
+          <t>Carmen_Martín_Gaite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le père de Carmen Martín Gaite, le notaire José Martín López, né en 1885 à Valladolid, était un ami de Miguel de Unamuno. La mère, María Gaite Veloso, est originaire de Galice. Quand elle commence à publier, Carmen Martín Gaite prendra le nom de sa mère. 
 La petite Carmen passe son enfance dans le confort du foyer bourgeois de Salamanque. Jusqu'à ses études secondaires, elle reçoit à la maison des leçons privées, fortement axées sur l'histoire et la littérature, car son père, un homme aux idées libérales, refuse que sa fille subisse l'éducation religieuse en vigueur dans les institutions espagnoles. La famille passe ses étés sur la propriété des grands-parents maternelles à quelques kilomètres d'Orense, des séjours heureux qui encourageront la future romancière à situer certains de ses récits dans le cadre galicien, comme dans Paroles données (Retahílas) paru en 1974.
@@ -524,7 +538,7 @@
 En 1972, elle soutient une thèse de doctorat sur le XVIIIe siècle espagnol. Elle reçoit le Prix national des Lettres espagnoles en 1994. Elle traduit aussi notamment Madame Bovary de Gustave Flaubert, Les Hauts de Hurlevent d'Emily Brontë, Jane Eyre de Charlotte Brontë, ainsi que plusieurs romans de Primo Levi, Virginia Woolf de son amie Natalia Ginzburg.
 En 1984, elle partage avec José Ángel Valente le prix Princesse des Asturies de littérature. Dans les années 1980, elle rédige des scénarios pour des mini-séries de la télévision espagnole et s'intéresse à la littérature d'enfance et de jeunesse au point de publier plusieurs ouvrages appartenant à ce genre, dont, en 1990, le best-seller Le Petit Chaperon rouge à Manhattan (Caperucita en Manhattan).
 Elle revient ensuite aux romans destinés aux adultes avec deux titres encensés par la critique : Drôle de vie la vie (Lo raro es vivir), paru en 1997, et Claquer la porte (Irse de casa), paru en 1998, qui sont de gros succès de librairie.
-En 1997, elle reçoit la Médaille d'Or du Círculo de Bellas Artes[1]. La même année, elle crée avec le guitariste et compositeur Alberto Pérez le label discographique “Avizor Records”, dans le but de faire connaître  de nouveaux poètes et musiciens. Le projet a été financé exclusivement avec les récitals qu’ils donnaient eux-mêmes et il a survécu jusqu’au décès de Carmen en 2000[2].
+En 1997, elle reçoit la Médaille d'Or du Círculo de Bellas Artes. La même année, elle crée avec le guitariste et compositeur Alberto Pérez le label discographique “Avizor Records”, dans le but de faire connaître  de nouveaux poètes et musiciens. Le projet a été financé exclusivement avec les récitals qu’ils donnaient eux-mêmes et il a survécu jusqu’au décès de Carmen en 2000.
 </t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carmen_Mart%C3%ADn_Gaite</t>
+          <t>Carmen_Martín_Gaite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans et nouvelles
-El balneario (1955), prix Café Gijón 1954, nouvelle publiée dans un recueil de nouvelles du même nom, avec Los informes, Un día de libertad et La chica de abajo
+          <t>Romans et nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>El balneario (1955), prix Café Gijón 1954, nouvelle publiée dans un recueil de nouvelles du même nom, avec Los informes, Un día de libertad et La chica de abajo
 Entre visillos (1958), prix Nadal 1957Publié en français sous le titre À travers les persiennes, traduit par Annie Brousseau, Paris, Gallimard, coll. « Du monde entier », 1961 (BNF 33091991).
 Ritmo lento (1963), finaliste du prix Biblioteca Breve 1962
 Retahílas (1974)Publié en français sous le titre Paroles données, traduit par Claude Bleton, Paris, Flammarion, 2005  (ISBN 2-08-068280-6).
@@ -568,9 +587,43 @@
 La reina de las Nieves (1994)Publié en français sous le titre La Reine des neiges, traduit par Claude Bleton, Paris, Flammarion, 1997  (ISBN 2-08-060602-6).
 Lo raro es vivir (1997)Publié en français sous le titre Drôle de vie la vie, traduit par Claude Bleton, Paris, Flammarion, 1999  (ISBN 2-08-067456-0).
 Irse de casa (1998)Publié en français sous le titre Claquer la porte, traduit par Claude Bleton, Paris, Flammarion, 2000  (ISBN 2-08-067924-4).
-Los parentescos (2001), inachevé et posthume[3]
-Contes
-Un día de libertad (1953), conte publié dans Revista Española
+Los parentescos (2001), inachevé et posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carmen_Martín_Gaite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Mart%C3%ADn_Gaite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un día de libertad (1953), conte publié dans Revista Española
 El balneario (1955), recueil
 Las ataduras (1960), recueil
 El castillo de las tres murallas (1981), recueil
@@ -578,23 +631,125 @@
 Dos relatos fantásticos (1986), recueil
 Retirada (1995), conte publié dans l'anthologie Cuentos de este siglo. 30 narradoras contemporáneas
 De su ventana a la mía (1996), conte publié dans l'anthologie Madres e hijas
-La chicas de abajo (2009), conte publié dans l'anthologie Cuentos de amigas
-Littérature d'enfance et de jeunesse
-Cuentos completos (1978, 1994 et 2005)
+La chicas de abajo (2009), conte publié dans l'anthologie Cuentos de amigas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carmen_Martín_Gaite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Mart%C3%ADn_Gaite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cuentos completos (1978, 1994 et 2005)
 El castillo de las tres murallas (1981)
 El pastel del diablo (1985)
 Dos relatos fantásticos (1986)
-Caperucita en Manhattan (1990) Publié en français sous le titre Le Petit Chaperon rouge à Manhattan, traduit par Mireille Duprat-Debenne, Paris, Flammarion, coll. « Castor Poche. Senior » no 633, 1998  (ISBN 2-08-164208-5) ; réédition, Paris, Flammarion, coll. « Flammarion jeunesse », 2010  (ISBN 978-2-08-124356-9)
-Essais
-El proceso de Macanaz: historia de un empapelamiento (1970)
+Caperucita en Manhattan (1990) Publié en français sous le titre Le Petit Chaperon rouge à Manhattan, traduit par Mireille Duprat-Debenne, Paris, Flammarion, coll. « Castor Poche. Senior » no 633, 1998  (ISBN 2-08-164208-5) ; réédition, Paris, Flammarion, coll. « Flammarion jeunesse », 2010  (ISBN 978-2-08-124356-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carmen_Martín_Gaite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Mart%C3%ADn_Gaite</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>El proceso de Macanaz: historia de un empapelamiento (1970)
 Usos amorosos del dieciocho en España (1973)
 El conde de Guadalhorce, su época y su labor (1976)
 Usos amorosos de la Postguerra española (1981)
 El cuento de nunca acabar (notas sobre la narración, el amor y la mentira) (1983)
 Desde la ventana: enfoque femenino de la literatura española (1987)
-Vida cotidiana en tiempos de Goya (avec Natacha Seseña et Gonzalo Anes (es), 1996)
-Autres publications
-A rachas (1973), poésie
+Vida cotidiana en tiempos de Goya (avec Natacha Seseña et Gonzalo Anes (es), 1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carmen_Martín_Gaite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Mart%C3%ADn_Gaite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A rachas (1973), poésie
 La búsqueda de interlocutor y otras búsquedas (1974), articles
 Todo es un cuento roto en Nueva York (1986), poésie
 Agua pasada (Artículos, prólogos y discursos) (1993), différents textes
@@ -610,37 +765,83 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Carmen_Mart%C3%ADn_Gaite</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carmen_Martín_Gaite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carmen_Mart%C3%ADn_Gaite</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En tant que scénariste
-Au cinéma
-1976 : Emilia... parada y fonda, film espagnol réalisé par Angelino Fons, avec Francisco Rabal, adaptation par l'auteur de son roman Las ataduras (1959)
-À la télévision
-1984 : Teresa de Jesús, mini-série espagnole, en 8 épisodes, réalisée par Josefina Molina, avec Concha Velasco
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1976 : Emilia... parada y fonda, film espagnol réalisé par Angelino Fons, avec Francisco Rabal, adaptation par l'auteur de son roman Las ataduras (1959)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carmen_Martín_Gaite</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Mart%C3%ADn_Gaite</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1984 : Teresa de Jesús, mini-série espagnole, en 8 épisodes, réalisée par Josefina Molina, avec Concha Velasco
 1984 : Fragmentos de interior, mini-série espagnole, en 4 épisodes, réalisée par Francisco Abad, adaptation par l'auteur de son propre roman éponyme, avec Antonio Banderas
 1993 : Celia, mini-série espagnole, en 6 épisodes, inspirée de l'œuvre de l'écrivaine Elena Fortún, réalisée par José Luis Borau, avec Ana Duato</t>
         </is>
